--- a/Beadandó/Algoritmusok9_feladat.xlsx
+++ b/Beadandó/Algoritmusok9_feladat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8F328F-B1C0-46D0-8E0C-1842D999FA4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4A86C0-A9F2-4D1A-9D85-8380D17429C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="35">
   <si>
     <t>P1</t>
   </si>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +139,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,10 +179,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -444,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,10 +478,12 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="68" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -480,8 +505,185 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <v>6</v>
+      </c>
+      <c r="Q1">
+        <v>7</v>
+      </c>
+      <c r="R1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>10</v>
+      </c>
+      <c r="U1">
+        <v>11</v>
+      </c>
+      <c r="V1">
+        <v>12</v>
+      </c>
+      <c r="W1">
+        <v>13</v>
+      </c>
+      <c r="X1">
+        <v>14</v>
+      </c>
+      <c r="Y1">
+        <v>15</v>
+      </c>
+      <c r="Z1">
+        <v>16</v>
+      </c>
+      <c r="AA1">
+        <v>17</v>
+      </c>
+      <c r="AB1">
+        <v>18</v>
+      </c>
+      <c r="AC1">
+        <v>19</v>
+      </c>
+      <c r="AD1">
+        <v>20</v>
+      </c>
+      <c r="AE1">
+        <v>21</v>
+      </c>
+      <c r="AF1">
+        <v>22</v>
+      </c>
+      <c r="AG1">
+        <v>23</v>
+      </c>
+      <c r="AH1">
+        <v>24</v>
+      </c>
+      <c r="AI1">
+        <v>25</v>
+      </c>
+      <c r="AJ1">
+        <v>26</v>
+      </c>
+      <c r="AK1">
+        <v>27</v>
+      </c>
+      <c r="AL1">
+        <v>28</v>
+      </c>
+      <c r="AM1">
+        <v>29</v>
+      </c>
+      <c r="AN1">
+        <v>30</v>
+      </c>
+      <c r="AO1">
+        <v>31</v>
+      </c>
+      <c r="AP1">
+        <v>32</v>
+      </c>
+      <c r="AQ1">
+        <v>33</v>
+      </c>
+      <c r="AR1">
+        <v>34</v>
+      </c>
+      <c r="AS1">
+        <v>35</v>
+      </c>
+      <c r="AT1">
+        <v>36</v>
+      </c>
+      <c r="AU1">
+        <v>37</v>
+      </c>
+      <c r="AV1">
+        <v>38</v>
+      </c>
+      <c r="AW1">
+        <v>39</v>
+      </c>
+      <c r="AX1">
+        <v>40</v>
+      </c>
+      <c r="AY1">
+        <v>41</v>
+      </c>
+      <c r="AZ1">
+        <v>42</v>
+      </c>
+      <c r="BA1">
+        <v>43</v>
+      </c>
+      <c r="BB1">
+        <v>44</v>
+      </c>
+      <c r="BC1">
+        <v>45</v>
+      </c>
+      <c r="BD1">
+        <v>46</v>
+      </c>
+      <c r="BE1">
+        <v>47</v>
+      </c>
+      <c r="BF1">
+        <v>48</v>
+      </c>
+      <c r="BG1">
+        <v>49</v>
+      </c>
+      <c r="BH1">
+        <v>50</v>
+      </c>
+      <c r="BI1">
+        <v>51</v>
+      </c>
+      <c r="BJ1">
+        <v>52</v>
+      </c>
+      <c r="BK1">
+        <v>53</v>
+      </c>
+      <c r="BL1">
+        <v>54</v>
+      </c>
+      <c r="BM1">
+        <v>55</v>
+      </c>
+      <c r="BN1">
+        <v>56</v>
+      </c>
+      <c r="BO1">
+        <v>57</v>
+      </c>
+      <c r="BP1">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -503,8 +705,32 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -526,8 +752,30 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -549,8 +797,57 @@
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -572,8 +869,33 @@
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -592,8 +914,14 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -610,7 +938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
